--- a/Historias Projeto RH.xlsx
+++ b/Historias Projeto RH.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thami_000\Desktop\rh\prosperity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurim_000\Desktop\RH\prosperity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,10 +1191,9 @@
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1206,10 +1205,9 @@
       <c r="C38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1221,10 +1219,9 @@
       <c r="C39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -1236,10 +1233,9 @@
       <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1296,10 +1292,9 @@
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1311,10 +1306,9 @@
       <c r="C45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -1343,7 +1337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>62</v>
@@ -1352,9 +1346,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
+      <c r="D50">
+        <f>SUM(D3:D49)</f>
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
